--- a/config_1.5/shoping_config.xlsx
+++ b/config_1.5/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4081" uniqueCount="1836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1865">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7920,6 +7920,112 @@
   </si>
   <si>
     <t>（v1-v3）及小额、免费、新玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","双倍奖励*5",</t>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","双倍奖励*3",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","双倍奖励*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>49800000,50,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,30,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,20,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,10,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_no_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "actp_cjj_gej_exchange" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>49800000,50,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,20,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,10,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_3d_fish_doubled",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_2",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8150,7 +8256,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8410,6 +8516,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10818,18 +10930,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN496"/>
+  <dimension ref="A1:AN508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="I410" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H483" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I417" sqref="I417"/>
+      <selection pane="bottomRight" activeCell="F515" sqref="F515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="6"/>
+    <col min="1" max="1" width="8.75" style="5"/>
     <col min="2" max="2" width="19.375" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="6" customWidth="1"/>
@@ -10868,7 +10980,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -14049,7 +14161,7 @@
       </c>
     </row>
     <row r="56" spans="1:35" s="22" customFormat="1">
-      <c r="A56" s="22">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="22">
@@ -14668,7 +14780,7 @@
       </c>
     </row>
     <row r="67" spans="1:35" s="72" customFormat="1">
-      <c r="A67" s="72">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="72">
@@ -14727,7 +14839,7 @@
       </c>
     </row>
     <row r="68" spans="1:35" s="72" customFormat="1">
-      <c r="A68" s="72">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="72">
@@ -14786,7 +14898,7 @@
       </c>
     </row>
     <row r="69" spans="1:35" s="72" customFormat="1">
-      <c r="A69" s="72">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="72">
@@ -14845,7 +14957,7 @@
       </c>
     </row>
     <row r="70" spans="1:35" s="72" customFormat="1">
-      <c r="A70" s="72">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="72">
@@ -14904,7 +15016,7 @@
       </c>
     </row>
     <row r="71" spans="1:35" s="72" customFormat="1">
-      <c r="A71" s="72">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="72">
@@ -15262,7 +15374,7 @@
       </c>
     </row>
     <row r="77" spans="1:35" s="19" customFormat="1">
-      <c r="A77" s="19">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="19">
@@ -15327,7 +15439,7 @@
       </c>
     </row>
     <row r="78" spans="1:35" s="19" customFormat="1">
-      <c r="A78" s="19">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="19">
@@ -15525,7 +15637,7 @@
       </c>
     </row>
     <row r="81" spans="1:35" s="19" customFormat="1">
-      <c r="A81" s="19">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="19">
@@ -16257,7 +16369,7 @@
       </c>
     </row>
     <row r="94" spans="1:35" s="72" customFormat="1">
-      <c r="A94" s="72">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94" s="72">
@@ -16611,7 +16723,7 @@
       </c>
     </row>
     <row r="100" spans="1:35" s="19" customFormat="1">
-      <c r="A100" s="19">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100" s="19">
@@ -16674,7 +16786,7 @@
       </c>
     </row>
     <row r="101" spans="1:35" s="19" customFormat="1">
-      <c r="A101" s="19">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="19">
@@ -16737,7 +16849,7 @@
       </c>
     </row>
     <row r="102" spans="1:35" s="19" customFormat="1">
-      <c r="A102" s="19">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
       <c r="B102" s="19">
@@ -16800,7 +16912,7 @@
       </c>
     </row>
     <row r="103" spans="1:35" s="19" customFormat="1">
-      <c r="A103" s="19">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
       <c r="B103" s="19">
@@ -16863,7 +16975,7 @@
       </c>
     </row>
     <row r="104" spans="1:35" s="19" customFormat="1">
-      <c r="A104" s="19">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104" s="19">
@@ -16926,7 +17038,7 @@
       </c>
     </row>
     <row r="105" spans="1:35" s="19" customFormat="1">
-      <c r="A105" s="19">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
       <c r="B105" s="19">
@@ -16989,7 +17101,7 @@
       </c>
     </row>
     <row r="106" spans="1:35" s="19" customFormat="1">
-      <c r="A106" s="19">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
       <c r="B106" s="19">
@@ -17052,7 +17164,7 @@
       </c>
     </row>
     <row r="107" spans="1:35" s="19" customFormat="1">
-      <c r="A107" s="19">
+      <c r="A107" s="5">
         <v>106</v>
       </c>
       <c r="B107" s="19">
@@ -17115,7 +17227,7 @@
       </c>
     </row>
     <row r="108" spans="1:35" s="19" customFormat="1">
-      <c r="A108" s="19">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
       <c r="B108" s="19">
@@ -18288,7 +18400,7 @@
       </c>
     </row>
     <row r="128" spans="1:35" s="72" customFormat="1">
-      <c r="A128" s="72">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
       <c r="B128" s="72">
@@ -18347,7 +18459,7 @@
       </c>
     </row>
     <row r="129" spans="1:39" s="72" customFormat="1">
-      <c r="A129" s="72">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
       <c r="B129" s="72">
@@ -20784,7 +20896,7 @@
       </c>
     </row>
     <row r="168" spans="1:39" s="19" customFormat="1">
-      <c r="A168" s="19">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
       <c r="B168" s="19">
@@ -20849,7 +20961,7 @@
       </c>
     </row>
     <row r="169" spans="1:39" s="19" customFormat="1">
-      <c r="A169" s="19">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
       <c r="B169" s="19">
@@ -20911,7 +21023,7 @@
       </c>
     </row>
     <row r="170" spans="1:39" s="19" customFormat="1">
-      <c r="A170" s="19">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
       <c r="B170" s="19">
@@ -20973,7 +21085,7 @@
       </c>
     </row>
     <row r="171" spans="1:39" s="43" customFormat="1">
-      <c r="A171" s="43">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
       <c r="B171" s="43">
@@ -21041,7 +21153,7 @@
       </c>
     </row>
     <row r="172" spans="1:39" s="43" customFormat="1">
-      <c r="A172" s="43">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
       <c r="B172" s="43">
@@ -21109,7 +21221,7 @@
       </c>
     </row>
     <row r="173" spans="1:39" s="43" customFormat="1">
-      <c r="A173" s="43">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
       <c r="B173" s="43">
@@ -21177,7 +21289,7 @@
       </c>
     </row>
     <row r="174" spans="1:39" s="43" customFormat="1">
-      <c r="A174" s="43">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
       <c r="B174" s="43">
@@ -21245,7 +21357,7 @@
       </c>
     </row>
     <row r="175" spans="1:39" s="43" customFormat="1">
-      <c r="A175" s="43">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
       <c r="B175" s="43">
@@ -21313,7 +21425,7 @@
       </c>
     </row>
     <row r="176" spans="1:39" s="43" customFormat="1">
-      <c r="A176" s="43">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
       <c r="B176" s="43">
@@ -21381,7 +21493,7 @@
       </c>
     </row>
     <row r="177" spans="1:39" s="43" customFormat="1">
-      <c r="A177" s="43">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
       <c r="B177" s="43">
@@ -21449,7 +21561,7 @@
       </c>
     </row>
     <row r="178" spans="1:39" s="43" customFormat="1">
-      <c r="A178" s="43">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
       <c r="B178" s="43">
@@ -21517,7 +21629,7 @@
       </c>
     </row>
     <row r="179" spans="1:39" s="43" customFormat="1">
-      <c r="A179" s="43">
+      <c r="A179" s="5">
         <v>178</v>
       </c>
       <c r="B179" s="43">
@@ -21585,7 +21697,7 @@
       </c>
     </row>
     <row r="180" spans="1:39" s="43" customFormat="1">
-      <c r="A180" s="43">
+      <c r="A180" s="5">
         <v>179</v>
       </c>
       <c r="B180" s="43">
@@ -21653,7 +21765,7 @@
       </c>
     </row>
     <row r="181" spans="1:39" s="43" customFormat="1">
-      <c r="A181" s="43">
+      <c r="A181" s="5">
         <v>180</v>
       </c>
       <c r="B181" s="43">
@@ -21721,7 +21833,7 @@
       </c>
     </row>
     <row r="182" spans="1:39" s="43" customFormat="1">
-      <c r="A182" s="43">
+      <c r="A182" s="5">
         <v>181</v>
       </c>
       <c r="B182" s="43">
@@ -21789,7 +21901,7 @@
       </c>
     </row>
     <row r="183" spans="1:39" s="43" customFormat="1">
-      <c r="A183" s="43">
+      <c r="A183" s="5">
         <v>182</v>
       </c>
       <c r="B183" s="43">
@@ -21857,7 +21969,7 @@
       </c>
     </row>
     <row r="184" spans="1:39" s="43" customFormat="1">
-      <c r="A184" s="43">
+      <c r="A184" s="5">
         <v>183</v>
       </c>
       <c r="B184" s="43">
@@ -21925,7 +22037,7 @@
       </c>
     </row>
     <row r="185" spans="1:39" s="43" customFormat="1">
-      <c r="A185" s="43">
+      <c r="A185" s="5">
         <v>184</v>
       </c>
       <c r="B185" s="43">
@@ -26156,7 +26268,7 @@
       </c>
     </row>
     <row r="250" spans="1:39" s="19" customFormat="1">
-      <c r="A250" s="19">
+      <c r="A250" s="5">
         <v>249</v>
       </c>
       <c r="B250" s="19">
@@ -27650,7 +27762,7 @@
       </c>
     </row>
     <row r="273" spans="1:40" s="76" customFormat="1" ht="14.25">
-      <c r="A273" s="76">
+      <c r="A273" s="88">
         <v>272</v>
       </c>
       <c r="B273" s="76">
@@ -27709,7 +27821,7 @@
       </c>
     </row>
     <row r="274" spans="1:40" ht="14.25">
-      <c r="A274" s="6">
+      <c r="A274" s="5">
         <v>273</v>
       </c>
       <c r="B274" s="5">
@@ -30780,7 +30892,7 @@
       </c>
     </row>
     <row r="323" spans="1:39" s="43" customFormat="1">
-      <c r="A323" s="43">
+      <c r="A323" s="5">
         <v>322</v>
       </c>
       <c r="B323" s="43">
@@ -30845,7 +30957,7 @@
       </c>
     </row>
     <row r="324" spans="1:39" s="43" customFormat="1">
-      <c r="A324" s="43">
+      <c r="A324" s="5">
         <v>323</v>
       </c>
       <c r="B324" s="43">
@@ -30910,7 +31022,7 @@
       </c>
     </row>
     <row r="325" spans="1:39" s="43" customFormat="1">
-      <c r="A325" s="43">
+      <c r="A325" s="5">
         <v>324</v>
       </c>
       <c r="B325" s="43">
@@ -30975,7 +31087,7 @@
       </c>
     </row>
     <row r="326" spans="1:39" s="40" customFormat="1">
-      <c r="A326" s="40">
+      <c r="A326" s="5">
         <v>325</v>
       </c>
       <c r="B326" s="40">
@@ -31035,7 +31147,7 @@
       </c>
     </row>
     <row r="327" spans="1:39" s="43" customFormat="1">
-      <c r="A327" s="43">
+      <c r="A327" s="5">
         <v>326</v>
       </c>
       <c r="B327" s="43">
@@ -31097,7 +31209,7 @@
       </c>
     </row>
     <row r="328" spans="1:39">
-      <c r="A328" s="43">
+      <c r="A328" s="5">
         <v>327</v>
       </c>
       <c r="B328" s="43">
@@ -31180,7 +31292,7 @@
       </c>
     </row>
     <row r="329" spans="1:39">
-      <c r="A329" s="43">
+      <c r="A329" s="5">
         <v>328</v>
       </c>
       <c r="B329" s="43">
@@ -31263,7 +31375,7 @@
       </c>
     </row>
     <row r="330" spans="1:39">
-      <c r="A330" s="43">
+      <c r="A330" s="5">
         <v>329</v>
       </c>
       <c r="B330" s="43">
@@ -31346,7 +31458,7 @@
       </c>
     </row>
     <row r="331" spans="1:39">
-      <c r="A331" s="43">
+      <c r="A331" s="5">
         <v>330</v>
       </c>
       <c r="B331" s="43">
@@ -31429,7 +31541,7 @@
       </c>
     </row>
     <row r="332" spans="1:39">
-      <c r="A332" s="43">
+      <c r="A332" s="5">
         <v>331</v>
       </c>
       <c r="B332" s="43">
@@ -31512,7 +31624,7 @@
       </c>
     </row>
     <row r="333" spans="1:39">
-      <c r="A333" s="43">
+      <c r="A333" s="5">
         <v>332</v>
       </c>
       <c r="B333" s="43">
@@ -31595,7 +31707,7 @@
       </c>
     </row>
     <row r="334" spans="1:39">
-      <c r="A334" s="43">
+      <c r="A334" s="5">
         <v>333</v>
       </c>
       <c r="B334" s="43">
@@ -31678,7 +31790,7 @@
       </c>
     </row>
     <row r="335" spans="1:39">
-      <c r="A335" s="43">
+      <c r="A335" s="5">
         <v>334</v>
       </c>
       <c r="B335" s="43">
@@ -31761,7 +31873,7 @@
       </c>
     </row>
     <row r="336" spans="1:39">
-      <c r="A336" s="43">
+      <c r="A336" s="5">
         <v>335</v>
       </c>
       <c r="B336" s="43">
@@ -31844,7 +31956,7 @@
       </c>
     </row>
     <row r="337" spans="1:39">
-      <c r="A337" s="43">
+      <c r="A337" s="5">
         <v>336</v>
       </c>
       <c r="B337" s="43">
@@ -31927,7 +32039,7 @@
       </c>
     </row>
     <row r="338" spans="1:39" s="19" customFormat="1">
-      <c r="A338" s="19">
+      <c r="A338" s="5">
         <v>337</v>
       </c>
       <c r="B338" s="19">
@@ -31995,7 +32107,7 @@
       </c>
     </row>
     <row r="339" spans="1:39">
-      <c r="A339" s="19">
+      <c r="A339" s="5">
         <v>338</v>
       </c>
       <c r="B339" s="19">
@@ -32080,7 +32192,7 @@
       </c>
     </row>
     <row r="340" spans="1:39">
-      <c r="A340" s="19">
+      <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="19">
@@ -32238,7 +32350,7 @@
       </c>
     </row>
     <row r="342" spans="1:39">
-      <c r="A342" s="6">
+      <c r="A342" s="5">
         <v>341</v>
       </c>
       <c r="B342" s="5">
@@ -32309,7 +32421,7 @@
       </c>
     </row>
     <row r="343" spans="1:39">
-      <c r="A343" s="6">
+      <c r="A343" s="5">
         <v>342</v>
       </c>
       <c r="B343" s="5">
@@ -32380,7 +32492,7 @@
       </c>
     </row>
     <row r="344" spans="1:39">
-      <c r="A344" s="6">
+      <c r="A344" s="5">
         <v>343</v>
       </c>
       <c r="B344" s="5">
@@ -32451,7 +32563,7 @@
       </c>
     </row>
     <row r="345" spans="1:39">
-      <c r="A345" s="6">
+      <c r="A345" s="5">
         <v>344</v>
       </c>
       <c r="B345" s="5">
@@ -32522,7 +32634,7 @@
       </c>
     </row>
     <row r="346" spans="1:39">
-      <c r="A346" s="6">
+      <c r="A346" s="5">
         <v>345</v>
       </c>
       <c r="B346" s="5">
@@ -32593,7 +32705,7 @@
       </c>
     </row>
     <row r="347" spans="1:39">
-      <c r="A347" s="6">
+      <c r="A347" s="5">
         <v>346</v>
       </c>
       <c r="B347" s="5">
@@ -32664,7 +32776,7 @@
       </c>
     </row>
     <row r="348" spans="1:39">
-      <c r="A348" s="6">
+      <c r="A348" s="5">
         <v>347</v>
       </c>
       <c r="B348" s="5">
@@ -32735,7 +32847,7 @@
       </c>
     </row>
     <row r="349" spans="1:39">
-      <c r="A349" s="6">
+      <c r="A349" s="5">
         <v>348</v>
       </c>
       <c r="B349" s="5">
@@ -32806,7 +32918,7 @@
       </c>
     </row>
     <row r="350" spans="1:39">
-      <c r="A350" s="6">
+      <c r="A350" s="5">
         <v>349</v>
       </c>
       <c r="B350" s="5">
@@ -32877,7 +32989,7 @@
       </c>
     </row>
     <row r="351" spans="1:39">
-      <c r="A351" s="6">
+      <c r="A351" s="5">
         <v>350</v>
       </c>
       <c r="B351" s="5">
@@ -32948,7 +33060,7 @@
       </c>
     </row>
     <row r="352" spans="1:39">
-      <c r="A352" s="6">
+      <c r="A352" s="5">
         <v>351</v>
       </c>
       <c r="B352" s="5">
@@ -35242,7 +35354,7 @@
       </c>
     </row>
     <row r="386" spans="1:39" s="62" customFormat="1">
-      <c r="A386" s="62">
+      <c r="A386" s="5">
         <v>385</v>
       </c>
       <c r="B386" s="62">
@@ -35310,7 +35422,7 @@
       </c>
     </row>
     <row r="387" spans="1:39" s="62" customFormat="1">
-      <c r="A387" s="62">
+      <c r="A387" s="5">
         <v>386</v>
       </c>
       <c r="B387" s="62">
@@ -35378,7 +35490,7 @@
       </c>
     </row>
     <row r="388" spans="1:39" s="62" customFormat="1">
-      <c r="A388" s="62">
+      <c r="A388" s="5">
         <v>387</v>
       </c>
       <c r="B388" s="62">
@@ -35446,7 +35558,7 @@
       </c>
     </row>
     <row r="389" spans="1:39" s="60" customFormat="1">
-      <c r="A389" s="60">
+      <c r="A389" s="5">
         <v>388</v>
       </c>
       <c r="B389" s="60">
@@ -35514,7 +35626,7 @@
       </c>
     </row>
     <row r="390" spans="1:39" s="60" customFormat="1">
-      <c r="A390" s="60">
+      <c r="A390" s="5">
         <v>389</v>
       </c>
       <c r="B390" s="60">
@@ -35582,7 +35694,7 @@
       </c>
     </row>
     <row r="391" spans="1:39" s="60" customFormat="1">
-      <c r="A391" s="60">
+      <c r="A391" s="5">
         <v>390</v>
       </c>
       <c r="B391" s="60">
@@ -35650,7 +35762,7 @@
       </c>
     </row>
     <row r="392" spans="1:39" s="62" customFormat="1">
-      <c r="A392" s="62">
+      <c r="A392" s="5">
         <v>391</v>
       </c>
       <c r="B392" s="62">
@@ -35718,7 +35830,7 @@
       </c>
     </row>
     <row r="393" spans="1:39" s="62" customFormat="1">
-      <c r="A393" s="62">
+      <c r="A393" s="5">
         <v>392</v>
       </c>
       <c r="B393" s="62">
@@ -35786,7 +35898,7 @@
       </c>
     </row>
     <row r="394" spans="1:39" s="62" customFormat="1">
-      <c r="A394" s="62">
+      <c r="A394" s="5">
         <v>393</v>
       </c>
       <c r="B394" s="62">
@@ -37071,7 +37183,7 @@
       </c>
     </row>
     <row r="414" spans="1:39" s="72" customFormat="1">
-      <c r="A414" s="72">
+      <c r="A414" s="5">
         <v>413</v>
       </c>
       <c r="B414" s="72">
@@ -37136,7 +37248,7 @@
       </c>
     </row>
     <row r="415" spans="1:39" s="40" customFormat="1">
-      <c r="A415" s="40">
+      <c r="A415" s="5">
         <v>414</v>
       </c>
       <c r="B415" s="40">
@@ -37204,7 +37316,7 @@
       </c>
     </row>
     <row r="416" spans="1:39" s="40" customFormat="1">
-      <c r="A416" s="40">
+      <c r="A416" s="5">
         <v>415</v>
       </c>
       <c r="B416" s="40">
@@ -37272,7 +37384,7 @@
       </c>
     </row>
     <row r="417" spans="1:39" s="40" customFormat="1">
-      <c r="A417" s="40">
+      <c r="A417" s="5">
         <v>416</v>
       </c>
       <c r="B417" s="40">
@@ -37340,7 +37452,7 @@
       </c>
     </row>
     <row r="418" spans="1:39" s="40" customFormat="1">
-      <c r="A418" s="40">
+      <c r="A418" s="5">
         <v>417</v>
       </c>
       <c r="B418" s="40">
@@ -37408,7 +37520,7 @@
       </c>
     </row>
     <row r="419" spans="1:39" s="40" customFormat="1">
-      <c r="A419" s="40">
+      <c r="A419" s="5">
         <v>418</v>
       </c>
       <c r="B419" s="40">
@@ -37476,7 +37588,7 @@
       </c>
     </row>
     <row r="420" spans="1:39" s="40" customFormat="1">
-      <c r="A420" s="40">
+      <c r="A420" s="5">
         <v>419</v>
       </c>
       <c r="B420" s="40">
@@ -37544,7 +37656,7 @@
       </c>
     </row>
     <row r="421" spans="1:39" s="19" customFormat="1">
-      <c r="A421" s="19">
+      <c r="A421" s="5">
         <v>420</v>
       </c>
       <c r="B421" s="19">
@@ -37612,7 +37724,7 @@
       </c>
     </row>
     <row r="422" spans="1:39">
-      <c r="A422" s="6">
+      <c r="A422" s="5">
         <v>421</v>
       </c>
       <c r="B422" s="5">
@@ -37680,7 +37792,7 @@
       </c>
     </row>
     <row r="423" spans="1:39">
-      <c r="A423" s="6">
+      <c r="A423" s="5">
         <v>422</v>
       </c>
       <c r="B423" s="5">
@@ -37748,7 +37860,7 @@
       </c>
     </row>
     <row r="424" spans="1:39">
-      <c r="A424" s="6">
+      <c r="A424" s="5">
         <v>423</v>
       </c>
       <c r="B424" s="5">
@@ -37816,7 +37928,7 @@
       </c>
     </row>
     <row r="425" spans="1:39">
-      <c r="A425" s="6">
+      <c r="A425" s="5">
         <v>424</v>
       </c>
       <c r="B425" s="5">
@@ -37872,7 +37984,7 @@
       </c>
     </row>
     <row r="426" spans="1:39">
-      <c r="A426" s="6">
+      <c r="A426" s="5">
         <v>425</v>
       </c>
       <c r="B426" s="5">
@@ -37928,7 +38040,7 @@
       </c>
     </row>
     <row r="427" spans="1:39">
-      <c r="A427" s="6">
+      <c r="A427" s="5">
         <v>426</v>
       </c>
       <c r="B427" s="5">
@@ -37984,7 +38096,7 @@
       </c>
     </row>
     <row r="428" spans="1:39">
-      <c r="A428" s="6">
+      <c r="A428" s="5">
         <v>427</v>
       </c>
       <c r="B428" s="5">
@@ -38040,7 +38152,7 @@
       </c>
     </row>
     <row r="429" spans="1:39">
-      <c r="A429" s="6">
+      <c r="A429" s="5">
         <v>428</v>
       </c>
       <c r="B429" s="5">
@@ -38096,7 +38208,7 @@
       </c>
     </row>
     <row r="430" spans="1:39" s="43" customFormat="1">
-      <c r="A430" s="43">
+      <c r="A430" s="5">
         <v>429</v>
       </c>
       <c r="B430" s="43">
@@ -38164,7 +38276,7 @@
       </c>
     </row>
     <row r="431" spans="1:39" s="43" customFormat="1">
-      <c r="A431" s="43">
+      <c r="A431" s="5">
         <v>430</v>
       </c>
       <c r="B431" s="43">
@@ -38232,7 +38344,7 @@
       </c>
     </row>
     <row r="432" spans="1:39" s="43" customFormat="1">
-      <c r="A432" s="43">
+      <c r="A432" s="5">
         <v>431</v>
       </c>
       <c r="B432" s="43">
@@ -38300,7 +38412,7 @@
       </c>
     </row>
     <row r="433" spans="1:39" s="43" customFormat="1">
-      <c r="A433" s="43">
+      <c r="A433" s="5">
         <v>432</v>
       </c>
       <c r="B433" s="43">
@@ -39195,7 +39307,7 @@
       </c>
     </row>
     <row r="447" spans="1:39" s="54" customFormat="1">
-      <c r="A447" s="54">
+      <c r="A447" s="5">
         <v>446</v>
       </c>
       <c r="B447" s="54">
@@ -39263,7 +39375,7 @@
       </c>
     </row>
     <row r="448" spans="1:39" s="54" customFormat="1">
-      <c r="A448" s="54">
+      <c r="A448" s="5">
         <v>447</v>
       </c>
       <c r="B448" s="54">
@@ -39328,7 +39440,7 @@
       </c>
     </row>
     <row r="449" spans="1:39" s="54" customFormat="1">
-      <c r="A449" s="54">
+      <c r="A449" s="5">
         <v>448</v>
       </c>
       <c r="B449" s="54">
@@ -39396,7 +39508,7 @@
       </c>
     </row>
     <row r="450" spans="1:39" s="64" customFormat="1">
-      <c r="A450" s="64">
+      <c r="A450" s="5">
         <v>449</v>
       </c>
       <c r="B450" s="64">
@@ -39464,7 +39576,7 @@
       </c>
     </row>
     <row r="451" spans="1:39" s="64" customFormat="1">
-      <c r="A451" s="64">
+      <c r="A451" s="5">
         <v>450</v>
       </c>
       <c r="B451" s="64">
@@ -39529,7 +39641,7 @@
       </c>
     </row>
     <row r="452" spans="1:39" s="64" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A452" s="64">
+      <c r="A452" s="5">
         <v>451</v>
       </c>
       <c r="B452" s="64">
@@ -39597,7 +39709,7 @@
       </c>
     </row>
     <row r="453" spans="1:39" s="54" customFormat="1">
-      <c r="A453" s="54">
+      <c r="A453" s="5">
         <v>452</v>
       </c>
       <c r="B453" s="54">
@@ -39665,7 +39777,7 @@
       </c>
     </row>
     <row r="454" spans="1:39" s="54" customFormat="1">
-      <c r="A454" s="54">
+      <c r="A454" s="5">
         <v>453</v>
       </c>
       <c r="B454" s="54">
@@ -39730,7 +39842,7 @@
       </c>
     </row>
     <row r="455" spans="1:39" s="54" customFormat="1">
-      <c r="A455" s="54">
+      <c r="A455" s="5">
         <v>454</v>
       </c>
       <c r="B455" s="54">
@@ -39798,7 +39910,7 @@
       </c>
     </row>
     <row r="456" spans="1:39" s="64" customFormat="1">
-      <c r="A456" s="64">
+      <c r="A456" s="5">
         <v>455</v>
       </c>
       <c r="B456" s="64">
@@ -39866,7 +39978,7 @@
       </c>
     </row>
     <row r="457" spans="1:39" s="64" customFormat="1">
-      <c r="A457" s="64">
+      <c r="A457" s="5">
         <v>456</v>
       </c>
       <c r="B457" s="64">
@@ -39931,7 +40043,7 @@
       </c>
     </row>
     <row r="458" spans="1:39" s="64" customFormat="1">
-      <c r="A458" s="64">
+      <c r="A458" s="5">
         <v>457</v>
       </c>
       <c r="B458" s="64">
@@ -39999,7 +40111,7 @@
       </c>
     </row>
     <row r="459" spans="1:39" s="54" customFormat="1">
-      <c r="A459" s="54">
+      <c r="A459" s="5">
         <v>458</v>
       </c>
       <c r="B459" s="54">
@@ -40067,7 +40179,7 @@
       </c>
     </row>
     <row r="460" spans="1:39" s="54" customFormat="1">
-      <c r="A460" s="54">
+      <c r="A460" s="5">
         <v>459</v>
       </c>
       <c r="B460" s="54">
@@ -40132,7 +40244,7 @@
       </c>
     </row>
     <row r="461" spans="1:39" s="54" customFormat="1">
-      <c r="A461" s="54">
+      <c r="A461" s="5">
         <v>460</v>
       </c>
       <c r="B461" s="54">
@@ -40200,7 +40312,7 @@
       </c>
     </row>
     <row r="462" spans="1:39" s="64" customFormat="1">
-      <c r="A462" s="64">
+      <c r="A462" s="5">
         <v>461</v>
       </c>
       <c r="B462" s="64">
@@ -40268,7 +40380,7 @@
       </c>
     </row>
     <row r="463" spans="1:39" s="64" customFormat="1">
-      <c r="A463" s="64">
+      <c r="A463" s="5">
         <v>462</v>
       </c>
       <c r="B463" s="64">
@@ -40333,7 +40445,7 @@
       </c>
     </row>
     <row r="464" spans="1:39" s="64" customFormat="1">
-      <c r="A464" s="64">
+      <c r="A464" s="5">
         <v>463</v>
       </c>
       <c r="B464" s="64">
@@ -40401,7 +40513,7 @@
       </c>
     </row>
     <row r="465" spans="1:39" s="54" customFormat="1">
-      <c r="A465" s="54">
+      <c r="A465" s="5">
         <v>464</v>
       </c>
       <c r="B465" s="54">
@@ -40469,7 +40581,7 @@
       </c>
     </row>
     <row r="466" spans="1:39" s="54" customFormat="1">
-      <c r="A466" s="54">
+      <c r="A466" s="5">
         <v>465</v>
       </c>
       <c r="B466" s="54">
@@ -40534,7 +40646,7 @@
       </c>
     </row>
     <row r="467" spans="1:39" s="54" customFormat="1">
-      <c r="A467" s="54">
+      <c r="A467" s="5">
         <v>466</v>
       </c>
       <c r="B467" s="54">
@@ -40602,7 +40714,7 @@
       </c>
     </row>
     <row r="468" spans="1:39" s="58" customFormat="1">
-      <c r="A468" s="58">
+      <c r="A468" s="5">
         <v>467</v>
       </c>
       <c r="B468" s="58">
@@ -40667,7 +40779,7 @@
       </c>
     </row>
     <row r="469" spans="1:39" s="58" customFormat="1">
-      <c r="A469" s="58">
+      <c r="A469" s="5">
         <v>468</v>
       </c>
       <c r="B469" s="58">
@@ -40732,7 +40844,7 @@
       </c>
     </row>
     <row r="470" spans="1:39" s="58" customFormat="1">
-      <c r="A470" s="58">
+      <c r="A470" s="5">
         <v>469</v>
       </c>
       <c r="B470" s="58">
@@ -40797,7 +40909,7 @@
       </c>
     </row>
     <row r="471" spans="1:39" s="58" customFormat="1">
-      <c r="A471" s="58">
+      <c r="A471" s="5">
         <v>470</v>
       </c>
       <c r="B471" s="58">
@@ -40862,7 +40974,7 @@
       </c>
     </row>
     <row r="472" spans="1:39" s="58" customFormat="1">
-      <c r="A472" s="58">
+      <c r="A472" s="5">
         <v>471</v>
       </c>
       <c r="B472" s="58">
@@ -40927,7 +41039,7 @@
       </c>
     </row>
     <row r="473" spans="1:39" s="58" customFormat="1">
-      <c r="A473" s="58">
+      <c r="A473" s="5">
         <v>472</v>
       </c>
       <c r="B473" s="58">
@@ -40992,7 +41104,7 @@
       </c>
     </row>
     <row r="474" spans="1:39" s="68" customFormat="1">
-      <c r="A474" s="68">
+      <c r="A474" s="5">
         <v>473</v>
       </c>
       <c r="B474" s="68">
@@ -41057,7 +41169,7 @@
       </c>
     </row>
     <row r="475" spans="1:39" s="68" customFormat="1">
-      <c r="A475" s="68">
+      <c r="A475" s="5">
         <v>474</v>
       </c>
       <c r="B475" s="68">
@@ -41122,7 +41234,7 @@
       </c>
     </row>
     <row r="476" spans="1:39" s="70" customFormat="1">
-      <c r="A476" s="70">
+      <c r="A476" s="5">
         <v>475</v>
       </c>
       <c r="B476" s="70">
@@ -41187,7 +41299,7 @@
       </c>
     </row>
     <row r="477" spans="1:39" s="70" customFormat="1">
-      <c r="A477" s="70">
+      <c r="A477" s="5">
         <v>476</v>
       </c>
       <c r="B477" s="70">
@@ -41252,7 +41364,7 @@
       </c>
     </row>
     <row r="478" spans="1:39" s="70" customFormat="1">
-      <c r="A478" s="70">
+      <c r="A478" s="5">
         <v>477</v>
       </c>
       <c r="B478" s="70">
@@ -41317,7 +41429,7 @@
       </c>
     </row>
     <row r="479" spans="1:39" s="70" customFormat="1">
-      <c r="A479" s="70">
+      <c r="A479" s="5">
         <v>478</v>
       </c>
       <c r="B479" s="70">
@@ -41382,7 +41494,7 @@
       </c>
     </row>
     <row r="480" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A480" s="81">
+      <c r="A480" s="5">
         <v>479</v>
       </c>
       <c r="B480" s="81">
@@ -41444,7 +41556,7 @@
       </c>
     </row>
     <row r="481" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A481" s="81">
+      <c r="A481" s="5">
         <v>480</v>
       </c>
       <c r="B481" s="81">
@@ -41506,7 +41618,7 @@
       </c>
     </row>
     <row r="482" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A482" s="81">
+      <c r="A482" s="5">
         <v>481</v>
       </c>
       <c r="B482" s="81">
@@ -41568,7 +41680,7 @@
       </c>
     </row>
     <row r="483" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A483" s="81">
+      <c r="A483" s="5">
         <v>482</v>
       </c>
       <c r="B483" s="81">
@@ -41630,7 +41742,7 @@
       </c>
     </row>
     <row r="484" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A484" s="81">
+      <c r="A484" s="5">
         <v>483</v>
       </c>
       <c r="B484" s="81">
@@ -41692,7 +41804,7 @@
       </c>
     </row>
     <row r="485" spans="1:39" s="81" customFormat="1" ht="14.25">
-      <c r="A485" s="81">
+      <c r="A485" s="5">
         <v>484</v>
       </c>
       <c r="B485" s="81">
@@ -41754,7 +41866,7 @@
       </c>
     </row>
     <row r="486" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A486" s="19">
+      <c r="A486" s="5">
         <v>485</v>
       </c>
       <c r="B486" s="19">
@@ -41819,7 +41931,7 @@
       </c>
     </row>
     <row r="487" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A487" s="19">
+      <c r="A487" s="5">
         <v>486</v>
       </c>
       <c r="B487" s="19">
@@ -41884,7 +41996,7 @@
       </c>
     </row>
     <row r="488" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A488" s="19">
+      <c r="A488" s="5">
         <v>487</v>
       </c>
       <c r="B488" s="19">
@@ -41949,7 +42061,7 @@
       </c>
     </row>
     <row r="489" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A489" s="19">
+      <c r="A489" s="5">
         <v>488</v>
       </c>
       <c r="B489" s="19">
@@ -42014,7 +42126,7 @@
       </c>
     </row>
     <row r="490" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A490" s="19">
+      <c r="A490" s="5">
         <v>489</v>
       </c>
       <c r="B490" s="19">
@@ -42079,7 +42191,7 @@
       </c>
     </row>
     <row r="491" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A491" s="19">
+      <c r="A491" s="5">
         <v>490</v>
       </c>
       <c r="B491" s="19">
@@ -42144,7 +42256,7 @@
       </c>
     </row>
     <row r="492" spans="1:39" s="19" customFormat="1" ht="14.25">
-      <c r="A492" s="19">
+      <c r="A492" s="5">
         <v>491</v>
       </c>
       <c r="B492" s="19">
@@ -42209,7 +42321,7 @@
       </c>
     </row>
     <row r="493" spans="1:39">
-      <c r="A493" s="19">
+      <c r="A493" s="5">
         <v>492</v>
       </c>
       <c r="B493" s="85">
@@ -42290,7 +42402,7 @@
       </c>
     </row>
     <row r="494" spans="1:39">
-      <c r="A494" s="19">
+      <c r="A494" s="5">
         <v>493</v>
       </c>
       <c r="B494" s="85">
@@ -42371,7 +42483,7 @@
       </c>
     </row>
     <row r="495" spans="1:39">
-      <c r="A495" s="43">
+      <c r="A495" s="5">
         <v>494</v>
       </c>
       <c r="B495" s="43">
@@ -42454,7 +42566,7 @@
       </c>
     </row>
     <row r="496" spans="1:39">
-      <c r="A496" s="43">
+      <c r="A496" s="5">
         <v>495</v>
       </c>
       <c r="B496" s="43">
@@ -42533,6 +42645,930 @@
         <v>1</v>
       </c>
       <c r="AM496" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:39">
+      <c r="A497" s="5">
+        <v>496</v>
+      </c>
+      <c r="B497" s="62">
+        <v>10413</v>
+      </c>
+      <c r="C497" s="62"/>
+      <c r="D497" s="62"/>
+      <c r="E497" s="62"/>
+      <c r="F497" s="62">
+        <v>1</v>
+      </c>
+      <c r="G497" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H497" s="62"/>
+      <c r="I497" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J497" s="62" t="s">
+        <v>1838</v>
+      </c>
+      <c r="K497" s="62"/>
+      <c r="L497" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M497" s="62">
+        <v>0</v>
+      </c>
+      <c r="N497" s="62">
+        <v>0</v>
+      </c>
+      <c r="O497" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P497" s="62">
+        <v>49800</v>
+      </c>
+      <c r="Q497" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="R497" s="63" t="s">
+        <v>1844</v>
+      </c>
+      <c r="S497" s="62"/>
+      <c r="T497" s="62"/>
+      <c r="U497" s="62"/>
+      <c r="V497" s="62"/>
+      <c r="W497" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="X497" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y497" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z497" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA497" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL497" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM497" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:39">
+      <c r="A498" s="5">
+        <v>497</v>
+      </c>
+      <c r="B498" s="62">
+        <v>10414</v>
+      </c>
+      <c r="C498" s="62"/>
+      <c r="D498" s="62"/>
+      <c r="E498" s="62"/>
+      <c r="F498" s="62">
+        <v>1</v>
+      </c>
+      <c r="G498" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H498" s="62"/>
+      <c r="I498" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J498" s="62" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K498" s="62"/>
+      <c r="L498" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M498" s="62">
+        <v>0</v>
+      </c>
+      <c r="N498" s="62">
+        <v>0</v>
+      </c>
+      <c r="O498" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P498" s="62">
+        <v>19800</v>
+      </c>
+      <c r="Q498" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="R498" s="63" t="s">
+        <v>1845</v>
+      </c>
+      <c r="S498" s="62"/>
+      <c r="T498" s="62"/>
+      <c r="U498" s="62"/>
+      <c r="V498" s="62"/>
+      <c r="W498" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="X498" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y498" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z498" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA498" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL498" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM498" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:39">
+      <c r="A499" s="5">
+        <v>498</v>
+      </c>
+      <c r="B499" s="62">
+        <v>10415</v>
+      </c>
+      <c r="C499" s="62"/>
+      <c r="D499" s="62"/>
+      <c r="E499" s="62"/>
+      <c r="F499" s="62">
+        <v>1</v>
+      </c>
+      <c r="G499" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H499" s="62"/>
+      <c r="I499" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J499" s="62" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K499" s="62"/>
+      <c r="L499" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M499" s="62">
+        <v>0</v>
+      </c>
+      <c r="N499" s="62">
+        <v>0</v>
+      </c>
+      <c r="O499" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P499" s="62">
+        <v>9800</v>
+      </c>
+      <c r="Q499" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="R499" s="63" t="s">
+        <v>1846</v>
+      </c>
+      <c r="S499" s="62"/>
+      <c r="T499" s="62"/>
+      <c r="U499" s="62"/>
+      <c r="V499" s="62"/>
+      <c r="W499" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="X499" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y499" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z499" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA499" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL499" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM499" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:39">
+      <c r="A500" s="5">
+        <v>499</v>
+      </c>
+      <c r="B500" s="62">
+        <v>10416</v>
+      </c>
+      <c r="C500" s="62"/>
+      <c r="D500" s="62"/>
+      <c r="E500" s="62"/>
+      <c r="F500" s="62">
+        <v>1</v>
+      </c>
+      <c r="G500" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H500" s="62"/>
+      <c r="I500" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J500" s="62" t="s">
+        <v>1841</v>
+      </c>
+      <c r="K500" s="62"/>
+      <c r="L500" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M500" s="62">
+        <v>0</v>
+      </c>
+      <c r="N500" s="62">
+        <v>0</v>
+      </c>
+      <c r="O500" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P500" s="62">
+        <v>4800</v>
+      </c>
+      <c r="Q500" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="R500" s="63" t="s">
+        <v>1847</v>
+      </c>
+      <c r="S500" s="62"/>
+      <c r="T500" s="62"/>
+      <c r="U500" s="62"/>
+      <c r="V500" s="62"/>
+      <c r="W500" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="X500" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y500" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z500" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA500" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL500" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM500" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:39">
+      <c r="A501" s="5">
+        <v>500</v>
+      </c>
+      <c r="B501" s="62">
+        <v>10417</v>
+      </c>
+      <c r="C501" s="62"/>
+      <c r="D501" s="62"/>
+      <c r="E501" s="62"/>
+      <c r="F501" s="62">
+        <v>1</v>
+      </c>
+      <c r="G501" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H501" s="62"/>
+      <c r="I501" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J501" s="62" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K501" s="62"/>
+      <c r="L501" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M501" s="62">
+        <v>0</v>
+      </c>
+      <c r="N501" s="62">
+        <v>0</v>
+      </c>
+      <c r="O501" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P501" s="62">
+        <v>2000</v>
+      </c>
+      <c r="Q501" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="R501" s="63" t="s">
+        <v>1848</v>
+      </c>
+      <c r="S501" s="62"/>
+      <c r="T501" s="62"/>
+      <c r="U501" s="62"/>
+      <c r="V501" s="62"/>
+      <c r="W501" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="X501" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y501" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z501" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA501" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL501" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM501" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:39">
+      <c r="A502" s="5">
+        <v>501</v>
+      </c>
+      <c r="B502" s="62">
+        <v>10418</v>
+      </c>
+      <c r="C502" s="62"/>
+      <c r="D502" s="62"/>
+      <c r="E502" s="62"/>
+      <c r="F502" s="62">
+        <v>1</v>
+      </c>
+      <c r="G502" s="62" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H502" s="62"/>
+      <c r="I502" s="62" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J502" s="62" t="s">
+        <v>1843</v>
+      </c>
+      <c r="K502" s="62"/>
+      <c r="L502" s="62">
+        <v>-31</v>
+      </c>
+      <c r="M502" s="62">
+        <v>0</v>
+      </c>
+      <c r="N502" s="62">
+        <v>0</v>
+      </c>
+      <c r="O502" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="P502" s="62">
+        <v>600</v>
+      </c>
+      <c r="Q502" s="62" t="s">
+        <v>1859</v>
+      </c>
+      <c r="R502" s="63" t="s">
+        <v>1849</v>
+      </c>
+      <c r="S502" s="62"/>
+      <c r="T502" s="62"/>
+      <c r="U502" s="62"/>
+      <c r="V502" s="62"/>
+      <c r="W502" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="X502" s="62">
+        <v>99999999</v>
+      </c>
+      <c r="Y502" s="62">
+        <v>1609804800</v>
+      </c>
+      <c r="Z502" s="62">
+        <v>1610380799</v>
+      </c>
+      <c r="AA502" s="62">
+        <v>66</v>
+      </c>
+      <c r="AH502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL502" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM502" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:39">
+      <c r="A503" s="5">
+        <v>502</v>
+      </c>
+      <c r="B503" s="60">
+        <v>10419</v>
+      </c>
+      <c r="C503" s="60"/>
+      <c r="D503" s="60"/>
+      <c r="E503" s="60"/>
+      <c r="F503" s="60">
+        <v>1</v>
+      </c>
+      <c r="G503" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H503" s="60"/>
+      <c r="I503" s="60" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J503" s="60" t="s">
+        <v>1862</v>
+      </c>
+      <c r="K503" s="60"/>
+      <c r="L503" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M503" s="60">
+        <v>0</v>
+      </c>
+      <c r="N503" s="60">
+        <v>0</v>
+      </c>
+      <c r="O503" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P503" s="60">
+        <v>49800</v>
+      </c>
+      <c r="Q503" s="60" t="s">
+        <v>1860</v>
+      </c>
+      <c r="R503" s="61" t="s">
+        <v>1856</v>
+      </c>
+      <c r="S503" s="60"/>
+      <c r="T503" s="60"/>
+      <c r="U503" s="60"/>
+      <c r="V503" s="60"/>
+      <c r="W503" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="X503" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y503" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z503" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA503" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL503" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM503" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:39">
+      <c r="A504" s="5">
+        <v>503</v>
+      </c>
+      <c r="B504" s="60">
+        <v>10420</v>
+      </c>
+      <c r="C504" s="60"/>
+      <c r="D504" s="60"/>
+      <c r="E504" s="60"/>
+      <c r="F504" s="60">
+        <v>1</v>
+      </c>
+      <c r="G504" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H504" s="60"/>
+      <c r="I504" s="60" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J504" s="60" t="s">
+        <v>1853</v>
+      </c>
+      <c r="K504" s="60"/>
+      <c r="L504" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M504" s="60">
+        <v>0</v>
+      </c>
+      <c r="N504" s="60">
+        <v>0</v>
+      </c>
+      <c r="O504" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P504" s="60">
+        <v>19800</v>
+      </c>
+      <c r="Q504" s="60" t="s">
+        <v>1860</v>
+      </c>
+      <c r="R504" s="61" t="s">
+        <v>1845</v>
+      </c>
+      <c r="S504" s="60"/>
+      <c r="T504" s="60"/>
+      <c r="U504" s="60"/>
+      <c r="V504" s="60"/>
+      <c r="W504" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="X504" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y504" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z504" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA504" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL504" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM504" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:39">
+      <c r="A505" s="5">
+        <v>504</v>
+      </c>
+      <c r="B505" s="60">
+        <v>10421</v>
+      </c>
+      <c r="C505" s="60"/>
+      <c r="D505" s="60"/>
+      <c r="E505" s="60"/>
+      <c r="F505" s="60">
+        <v>1</v>
+      </c>
+      <c r="G505" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H505" s="60"/>
+      <c r="I505" s="60" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J505" s="60" t="s">
+        <v>1863</v>
+      </c>
+      <c r="K505" s="60"/>
+      <c r="L505" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M505" s="60">
+        <v>0</v>
+      </c>
+      <c r="N505" s="60">
+        <v>0</v>
+      </c>
+      <c r="O505" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P505" s="60">
+        <v>9800</v>
+      </c>
+      <c r="Q505" s="60" t="s">
+        <v>1860</v>
+      </c>
+      <c r="R505" s="61" t="s">
+        <v>1857</v>
+      </c>
+      <c r="S505" s="60"/>
+      <c r="T505" s="60"/>
+      <c r="U505" s="60"/>
+      <c r="V505" s="60"/>
+      <c r="W505" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="X505" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y505" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z505" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA505" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL505" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM505" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:39">
+      <c r="A506" s="5">
+        <v>505</v>
+      </c>
+      <c r="B506" s="60">
+        <v>10422</v>
+      </c>
+      <c r="C506" s="60"/>
+      <c r="D506" s="60"/>
+      <c r="E506" s="60"/>
+      <c r="F506" s="60">
+        <v>1</v>
+      </c>
+      <c r="G506" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H506" s="60"/>
+      <c r="I506" s="60" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J506" s="60" t="s">
+        <v>1864</v>
+      </c>
+      <c r="K506" s="60"/>
+      <c r="L506" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M506" s="60">
+        <v>0</v>
+      </c>
+      <c r="N506" s="60">
+        <v>0</v>
+      </c>
+      <c r="O506" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P506" s="60">
+        <v>4800</v>
+      </c>
+      <c r="Q506" s="60" t="s">
+        <v>1861</v>
+      </c>
+      <c r="R506" s="61" t="s">
+        <v>1858</v>
+      </c>
+      <c r="S506" s="60"/>
+      <c r="T506" s="60"/>
+      <c r="U506" s="60"/>
+      <c r="V506" s="60"/>
+      <c r="W506" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="X506" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y506" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z506" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA506" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL506" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM506" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:39">
+      <c r="A507" s="5">
+        <v>506</v>
+      </c>
+      <c r="B507" s="60">
+        <v>10423</v>
+      </c>
+      <c r="C507" s="60"/>
+      <c r="D507" s="60"/>
+      <c r="E507" s="60"/>
+      <c r="F507" s="60">
+        <v>1</v>
+      </c>
+      <c r="G507" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H507" s="60"/>
+      <c r="I507" s="60" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J507" s="60" t="s">
+        <v>1854</v>
+      </c>
+      <c r="K507" s="60"/>
+      <c r="L507" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M507" s="60">
+        <v>0</v>
+      </c>
+      <c r="N507" s="60">
+        <v>0</v>
+      </c>
+      <c r="O507" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P507" s="60">
+        <v>2000</v>
+      </c>
+      <c r="Q507" s="60" t="s">
+        <v>1861</v>
+      </c>
+      <c r="R507" s="61" t="s">
+        <v>1848</v>
+      </c>
+      <c r="S507" s="60"/>
+      <c r="T507" s="60"/>
+      <c r="U507" s="60"/>
+      <c r="V507" s="60"/>
+      <c r="W507" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="X507" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y507" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z507" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA507" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL507" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM507" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:39">
+      <c r="A508" s="5">
+        <v>507</v>
+      </c>
+      <c r="B508" s="60">
+        <v>10424</v>
+      </c>
+      <c r="C508" s="60"/>
+      <c r="D508" s="60"/>
+      <c r="E508" s="60"/>
+      <c r="F508" s="60">
+        <v>1</v>
+      </c>
+      <c r="G508" s="60" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H508" s="60"/>
+      <c r="I508" s="60" t="s">
+        <v>1852</v>
+      </c>
+      <c r="J508" s="60" t="s">
+        <v>1855</v>
+      </c>
+      <c r="K508" s="60"/>
+      <c r="L508" s="60">
+        <v>-31</v>
+      </c>
+      <c r="M508" s="60">
+        <v>0</v>
+      </c>
+      <c r="N508" s="60">
+        <v>0</v>
+      </c>
+      <c r="O508" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="P508" s="60">
+        <v>600</v>
+      </c>
+      <c r="Q508" s="60" t="s">
+        <v>1861</v>
+      </c>
+      <c r="R508" s="61" t="s">
+        <v>1849</v>
+      </c>
+      <c r="S508" s="60"/>
+      <c r="T508" s="60"/>
+      <c r="U508" s="60"/>
+      <c r="V508" s="60"/>
+      <c r="W508" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="X508" s="60">
+        <v>99999999</v>
+      </c>
+      <c r="Y508" s="60">
+        <v>1609804800</v>
+      </c>
+      <c r="Z508" s="60">
+        <v>1610380799</v>
+      </c>
+      <c r="AA508" s="60">
+        <v>67</v>
+      </c>
+      <c r="AH508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL508" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM508" s="6">
         <v>1</v>
       </c>
     </row>
@@ -42546,10 +43582,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -43499,6 +44535,34 @@
       </c>
       <c r="D66" s="56">
         <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="25">
+        <v>66</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C67" s="25">
+        <v>1</v>
+      </c>
+      <c r="D67" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C68" s="25">
+        <v>1</v>
+      </c>
+      <c r="D68" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
